--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\UiPath\Calculate_Client_Security_Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B09D6-5F5A-4A87-93FD-027C960BB6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4604E59-FBE5-4DCE-8FB2-83A44739F856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -208,12 +208,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,9 +226,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -246,10 +239,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1658,11 +1650,8 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{E77C317F-4E44-4C34-88FC-B971BAB663D4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
